--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/7/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/7/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1641641641641642</v>
+        <v>0.3654365436543655</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1421.421421421422</v>
+        <v>873.947394739474</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01431431431431432</v>
+        <v>0.02531253125312532</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1161161161161161</v>
+        <v>0.09940994099409942</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2000</v>
+        <v>1851.215121512151</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>616.6166166166166</v>
+        <v>809.6309630963096</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>345.3453453453454</v>
+        <v>311.1206120612061</v>
       </c>
     </row>
   </sheetData>
